--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N2">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q2">
-        <v>29364.5011550381</v>
+        <v>1250.812332438682</v>
       </c>
       <c r="R2">
-        <v>264280.5103953429</v>
+        <v>11257.31099194814</v>
       </c>
       <c r="S2">
-        <v>0.480814628375602</v>
+        <v>0.1590261321551965</v>
       </c>
       <c r="T2">
-        <v>0.480814628375602</v>
+        <v>0.1590261321551964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q3">
-        <v>134.060049622559</v>
+        <v>95.84719242886656</v>
       </c>
       <c r="R3">
-        <v>1206.540446603031</v>
+        <v>862.624731859799</v>
       </c>
       <c r="S3">
-        <v>0.002195100560331717</v>
+        <v>0.01218584746456734</v>
       </c>
       <c r="T3">
-        <v>0.002195100560331717</v>
+        <v>0.01218584746456734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N4">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q4">
-        <v>3092.941964482489</v>
+        <v>1192.774763952038</v>
       </c>
       <c r="R4">
-        <v>27836.4776803424</v>
+        <v>10734.97287556834</v>
       </c>
       <c r="S4">
-        <v>0.05064386189938063</v>
+        <v>0.1516473353550971</v>
       </c>
       <c r="T4">
-        <v>0.05064386189938063</v>
+        <v>0.1516473353550971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N5">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O5">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P5">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q5">
-        <v>14887.98252450625</v>
+        <v>887.0035485717067</v>
       </c>
       <c r="R5">
-        <v>133991.8427205562</v>
+        <v>7983.03193714536</v>
       </c>
       <c r="S5">
-        <v>0.2437759710947707</v>
+        <v>0.1127721080765786</v>
       </c>
       <c r="T5">
-        <v>0.2437759710947707</v>
+        <v>0.1127721080765786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q6">
-        <v>67.96926893044335</v>
+        <v>67.96926893044333</v>
       </c>
       <c r="R6">
-        <v>611.7234203739901</v>
+        <v>611.7234203739899</v>
       </c>
       <c r="S6">
-        <v>0.001112929472535767</v>
+        <v>0.008641496140632792</v>
       </c>
       <c r="T6">
-        <v>0.001112929472535767</v>
+        <v>0.00864149614063279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N7">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O7">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P7">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q7">
-        <v>1568.140581493477</v>
+        <v>845.8466716661534</v>
       </c>
       <c r="R7">
-        <v>14113.26523344129</v>
+        <v>7612.62004499538</v>
       </c>
       <c r="S7">
-        <v>0.02567674917924239</v>
+        <v>0.1075394934179775</v>
       </c>
       <c r="T7">
-        <v>0.02567674917924239</v>
+        <v>0.1075394934179775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N8">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O8">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P8">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q8">
-        <v>10772.91418028189</v>
+        <v>1736.355544200234</v>
       </c>
       <c r="R8">
-        <v>96956.22762253706</v>
+        <v>15627.1998978021</v>
       </c>
       <c r="S8">
-        <v>0.1763958018822258</v>
+        <v>0.2207572623640812</v>
       </c>
       <c r="T8">
-        <v>0.1763958018822259</v>
+        <v>0.2207572623640812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q9">
-        <v>49.18242615336833</v>
+        <v>133.0533763169846</v>
       </c>
       <c r="R9">
-        <v>442.641835380315</v>
+        <v>1197.480386852861</v>
       </c>
       <c r="S9">
-        <v>0.0008053135256304205</v>
+        <v>0.01691617779673366</v>
       </c>
       <c r="T9">
-        <v>0.0008053135256304205</v>
+        <v>0.01691617779673366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N10">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O10">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P10">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q10">
-        <v>1134.703367581152</v>
+        <v>1655.788818720954</v>
       </c>
       <c r="R10">
-        <v>10212.33030823036</v>
+        <v>14902.09936848858</v>
       </c>
       <c r="S10">
-        <v>0.0185796440102804</v>
+        <v>0.2105141472291354</v>
       </c>
       <c r="T10">
-        <v>0.0185796440102804</v>
+        <v>0.2105141472291354</v>
       </c>
     </row>
   </sheetData>
